--- a/LF/TAS/Nigeria/2024/june_2024/Niger/ng_lf_tas_2406_1_sit_part_ng.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Niger/ng_lf_tas_2406_1_sit_part_ng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Niger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F7551B-2A40-4A4E-8BDC-3651B1B18CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F322A-1059-4174-9355-9064DC47009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD18"/>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A396" sqref="A396:XFD401"/>
     </sheetView>
   </sheetViews>

--- a/LF/TAS/Nigeria/2024/june_2024/Niger/ng_lf_tas_2406_1_sit_part_ng.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Niger/ng_lf_tas_2406_1_sit_part_ng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Niger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F322A-1059-4174-9355-9064DC47009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A280ED2-57B3-435D-81E6-E630E922EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2243,15 +2243,6 @@
     <t xml:space="preserve">What is the source of water in this School? </t>
   </si>
   <si>
-    <t>(June 2024) - 1. Niger - TAS1 LF Site &amp; participant Form V3</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_2406_1_sit_part_ng_v3</t>
-  </si>
-  <si>
-    <t>ng_tas_p_2406_ng_3</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -2292,6 +2283,15 @@
   </si>
   <si>
     <t>${c_has_water} = 'Yes'</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2406_1_sit_part_ng_v31</t>
+  </si>
+  <si>
+    <t>(June 2024) Niger - 1. TAS1 LF Site &amp; participant Form V3</t>
+  </si>
+  <si>
+    <t>ng_tas_p_2406_ng_31</t>
   </si>
 </sst>
 </file>
@@ -2899,11 +2899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD18"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3310,7 +3310,7 @@
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
@@ -3325,7 +3325,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>732</v>
@@ -3358,7 +3358,7 @@
       <c r="E18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
@@ -3431,7 +3431,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>82</v>
@@ -3721,7 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A396" sqref="A396:XFD401"/>
     </sheetView>
@@ -3869,10 +3869,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -3880,10 +3880,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -3891,10 +3891,10 @@
         <v>69</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
@@ -3902,10 +3902,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
@@ -3913,10 +3913,10 @@
         <v>69</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
@@ -3924,10 +3924,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
@@ -3935,10 +3935,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
@@ -3946,10 +3946,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -3957,10 +3957,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -3968,10 +3968,10 @@
         <v>69</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -8948,10 +8948,10 @@
         <v>158</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>715</v>
@@ -8962,10 +8962,10 @@
         <v>158</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>716</v>
@@ -8976,10 +8976,10 @@
         <v>158</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>646</v>
@@ -8990,10 +8990,10 @@
         <v>158</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>717</v>
@@ -9004,10 +9004,10 @@
         <v>158</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>718</v>
@@ -9018,10 +9018,10 @@
         <v>158</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>719</v>
@@ -9032,10 +9032,10 @@
         <v>158</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>720</v>
@@ -17569,7 +17569,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -17596,10 +17596,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
